--- a/biology/Botanique/Giovanni_Zanardini/Giovanni_Zanardini.xlsx
+++ b/biology/Botanique/Giovanni_Zanardini/Giovanni_Zanardini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giovanni Zanardini (né le 12 juin 1804 à Venise et mort le 24 avril 1878) était un médecin et un botaniste italien du XIXe siècle.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Giovanni Zanardini était le fils d’Angelo et d’Anna Maria née Traffico. Il obtient son doctorat de médecine à l’université de Padoue en 1831. Il poursuit ses études en chirurgie et en obstétrique à l’université de Pavie. De 1834 à 1847, il dirige l’hôpital royal de Padoue et jusqu’en 1869, il est directeur-assistant de celui de Venise. Il est secrétaire de l’Institut vénitien des Sciences et des Lettres[1].
-Dans le domaine de l’histoire naturelle, il réalise de nombreux travaux sur les algues de diverses mers. Sa monographie sur les algues de l'Adriatique est une des plus importantes[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Giovanni Zanardini était le fils d’Angelo et d’Anna Maria née Traffico. Il obtient son doctorat de médecine à l’université de Padoue en 1831. Il poursuit ses études en chirurgie et en obstétrique à l’université de Pavie. De 1834 à 1847, il dirige l’hôpital royal de Padoue et jusqu’en 1869, il est directeur-assistant de celui de Venise. Il est secrétaire de l’Institut vénitien des Sciences et des Lettres.
+Dans le domaine de l’histoire naturelle, il réalise de nombreux travaux sur les algues de diverses mers. Sa monographie sur les algues de l'Adriatique est une des plus importantes.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'algue Zanardinia a été nommé en son hommage par D. Nardo.  Son nom a été donné à différentes plantes comme :
-(Brassicaceae) Iberis zanardinii Vis.[3]
-(Cyperaceae) Eleocharis zanardinii Parl[4]
-(Cyperaceae) Scirpus zanardinii Ambrosi[5]
+(Brassicaceae) Iberis zanardinii Vis.
+(Cyperaceae) Eleocharis zanardinii Parl
+(Cyperaceae) Scirpus zanardinii Ambrosi
 À Rome, on trouve la Via Giovanni Zanardini.
 </t>
         </is>
@@ -578,7 +594,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Giovanni Zanardini, Eleonora Monti. 1965. Giovanni Zanardi: origine e vita. Eleonora Monti : vita di Francesco Monti; notizie istoriche. Édition Camillo Boselli. Editor Geroldi, 106 pp.
 Phycearum indicarum pugillus. 49 pp., 1872.
